--- a/Assignment_1/result_table.xlsx
+++ b/Assignment_1/result_table.xlsx
@@ -7,110 +7,113 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="task3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
-  <si>
-    <t>Non-shiftable</t>
-  </si>
-  <si>
-    <t>Shiftable</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+  <si>
+    <t>Non-shiftable [kW/h]</t>
+  </si>
+  <si>
+    <t>Shiftable [kW/h]</t>
   </si>
   <si>
     <t>Minimized cost [NOK]</t>
   </si>
   <si>
+    <t>EV</t>
+  </si>
+  <si>
     <t>House</t>
   </si>
   <si>
-    <t>17.857</t>
+    <t>18.289</t>
+  </si>
+  <si>
+    <t>17.918</t>
+  </si>
+  <si>
+    <t>17.979</t>
+  </si>
+  <si>
+    <t>13.708</t>
+  </si>
+  <si>
+    <t>18.167</t>
+  </si>
+  <si>
+    <t>13.220</t>
+  </si>
+  <si>
+    <t>13.159</t>
+  </si>
+  <si>
+    <t>13.308</t>
+  </si>
+  <si>
+    <t>13.823</t>
+  </si>
+  <si>
+    <t>13.335</t>
+  </si>
+  <si>
+    <t>18.006</t>
+  </si>
+  <si>
+    <t>17.889</t>
+  </si>
+  <si>
+    <t>18.029</t>
+  </si>
+  <si>
+    <t>13.386</t>
+  </si>
+  <si>
+    <t>17.884</t>
+  </si>
+  <si>
+    <t>13.648</t>
+  </si>
+  <si>
+    <t>18.123</t>
+  </si>
+  <si>
+    <t>17.851</t>
   </si>
   <si>
     <t>13.304</t>
   </si>
   <si>
-    <t>13.526</t>
-  </si>
-  <si>
-    <t>17.868</t>
-  </si>
-  <si>
-    <t>13.425</t>
-  </si>
-  <si>
-    <t>18.373</t>
-  </si>
-  <si>
-    <t>17.928</t>
-  </si>
-  <si>
-    <t>17.912</t>
-  </si>
-  <si>
-    <t>18.039</t>
-  </si>
-  <si>
-    <t>17.806</t>
-  </si>
-  <si>
-    <t>17.979</t>
-  </si>
-  <si>
-    <t>17.891</t>
-  </si>
-  <si>
-    <t>13.664</t>
-  </si>
-  <si>
-    <t>17.922</t>
-  </si>
-  <si>
-    <t>13.271</t>
-  </si>
-  <si>
-    <t>13.565</t>
-  </si>
-  <si>
-    <t>13.580</t>
-  </si>
-  <si>
-    <t>13.530</t>
-  </si>
-  <si>
-    <t>13.553</t>
-  </si>
-  <si>
-    <t>13.419</t>
-  </si>
-  <si>
-    <t>18.234</t>
-  </si>
-  <si>
-    <t>13.446</t>
-  </si>
-  <si>
-    <t>13.708</t>
-  </si>
-  <si>
-    <t>13.541</t>
-  </si>
-  <si>
-    <t>18.289</t>
-  </si>
-  <si>
-    <t>18.023</t>
+    <t>13.392</t>
+  </si>
+  <si>
+    <t>18.177</t>
+  </si>
+  <si>
+    <t>13.265</t>
+  </si>
+  <si>
+    <t>18.002</t>
+  </si>
+  <si>
+    <t>18.150</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +123,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,16 +172,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -461,15 +493,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -480,428 +515,526 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.739</v>
-      </c>
-      <c r="C2">
-        <v>0.739</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.739</v>
-      </c>
-      <c r="C3">
-        <v>0.739</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.739</v>
-      </c>
-      <c r="C4">
-        <v>0.739</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.739</v>
-      </c>
-      <c r="C5">
-        <v>0.739</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.739</v>
-      </c>
-      <c r="C6">
-        <v>0.739</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.739</v>
-      </c>
-      <c r="C7">
-        <v>0.739</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.739</v>
-      </c>
-      <c r="C8">
-        <v>0.739</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.739</v>
-      </c>
-      <c r="C9">
-        <v>0.739</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.739</v>
-      </c>
-      <c r="C10">
-        <v>0.739</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.739</v>
-      </c>
-      <c r="C11">
-        <v>0.739</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0.739</v>
-      </c>
-      <c r="C12">
-        <v>0.739</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0.739</v>
-      </c>
-      <c r="C13">
-        <v>0.739</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0.739</v>
-      </c>
-      <c r="C14">
-        <v>0.739</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0.739</v>
-      </c>
-      <c r="C15">
-        <v>0.739</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0.739</v>
-      </c>
-      <c r="C16">
-        <v>0.739</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0.739</v>
-      </c>
-      <c r="C17">
-        <v>0.739</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0.739</v>
-      </c>
-      <c r="C18">
-        <v>0.739</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0.739</v>
-      </c>
-      <c r="C19">
-        <v>0.739</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0.739</v>
-      </c>
-      <c r="C20">
-        <v>0.739</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0.739</v>
-      </c>
-      <c r="C21">
-        <v>0.739</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0.739</v>
-      </c>
-      <c r="C22">
-        <v>0.739</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0.739</v>
-      </c>
-      <c r="C23">
-        <v>0.739</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0.739</v>
-      </c>
-      <c r="C24">
-        <v>0.739</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0.739</v>
-      </c>
-      <c r="C25">
-        <v>0.739</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0.739</v>
-      </c>
-      <c r="C26">
-        <v>0.739</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0.739</v>
-      </c>
-      <c r="C27">
-        <v>0.739</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0.739</v>
-      </c>
-      <c r="C28">
-        <v>0.739</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0.739</v>
-      </c>
-      <c r="C29">
-        <v>0.739</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0.739</v>
-      </c>
-      <c r="C30">
-        <v>0.739</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0.739</v>
-      </c>
-      <c r="C31">
-        <v>0.739</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.739</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A5">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignment_1/result_table.xlsx
+++ b/Assignment_1/result_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Non-shiftable [kW/h]</t>
   </si>
@@ -31,82 +31,88 @@
     <t>House</t>
   </si>
   <si>
-    <t>18.289</t>
+    <t>13.664</t>
+  </si>
+  <si>
+    <t>13.675</t>
+  </si>
+  <si>
+    <t>13.452</t>
+  </si>
+  <si>
+    <t>18.056</t>
+  </si>
+  <si>
+    <t>18.117</t>
+  </si>
+  <si>
+    <t>17.922</t>
+  </si>
+  <si>
+    <t>17.996</t>
+  </si>
+  <si>
+    <t>18.033</t>
+  </si>
+  <si>
+    <t>13.446</t>
+  </si>
+  <si>
+    <t>17.889</t>
+  </si>
+  <si>
+    <t>17.941</t>
+  </si>
+  <si>
+    <t>13.415</t>
+  </si>
+  <si>
+    <t>13.275</t>
+  </si>
+  <si>
+    <t>18.039</t>
+  </si>
+  <si>
+    <t>18.062</t>
+  </si>
+  <si>
+    <t>18.261</t>
+  </si>
+  <si>
+    <t>17.806</t>
   </si>
   <si>
     <t>17.918</t>
   </si>
   <si>
-    <t>17.979</t>
-  </si>
-  <si>
-    <t>13.708</t>
-  </si>
-  <si>
-    <t>18.167</t>
-  </si>
-  <si>
-    <t>13.220</t>
-  </si>
-  <si>
-    <t>13.159</t>
-  </si>
-  <si>
-    <t>13.308</t>
-  </si>
-  <si>
-    <t>13.823</t>
-  </si>
-  <si>
-    <t>13.335</t>
-  </si>
-  <si>
-    <t>18.006</t>
-  </si>
-  <si>
-    <t>17.889</t>
-  </si>
-  <si>
-    <t>18.029</t>
-  </si>
-  <si>
-    <t>13.386</t>
-  </si>
-  <si>
-    <t>17.884</t>
-  </si>
-  <si>
-    <t>13.648</t>
+    <t>18.278</t>
+  </si>
+  <si>
+    <t>13.392</t>
   </si>
   <si>
     <t>18.123</t>
   </si>
   <si>
-    <t>17.851</t>
-  </si>
-  <si>
-    <t>13.304</t>
-  </si>
-  <si>
-    <t>13.392</t>
-  </si>
-  <si>
-    <t>18.177</t>
-  </si>
-  <si>
-    <t>13.265</t>
-  </si>
-  <si>
-    <t>18.002</t>
-  </si>
-  <si>
-    <t>18.150</t>
+    <t>13.536</t>
+  </si>
+  <si>
+    <t>18.183</t>
+  </si>
+  <si>
+    <t>13.587</t>
+  </si>
+  <si>
+    <t>13.425</t>
+  </si>
+  <si>
+    <t>13.197</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -184,8 +190,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
       <border>
         <left style="thick">
           <color auto="1"/>
@@ -193,7 +204,28 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="medium">
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
           <color auto="1"/>
         </top>
         <bottom style="medium">
@@ -499,7 +531,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="4" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -533,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -550,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -567,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -584,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -601,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -618,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -635,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -649,10 +683,10 @@
         <v>0.739</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -666,10 +700,10 @@
         <v>0.739</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -683,10 +717,10 @@
         <v>0.739</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -700,10 +734,10 @@
         <v>0.739</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -717,10 +751,10 @@
         <v>0.739</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -734,10 +768,10 @@
         <v>0.739</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -751,10 +785,10 @@
         <v>0.739</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -768,10 +802,10 @@
         <v>0.739</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -785,10 +819,10 @@
         <v>0.739</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -802,10 +836,10 @@
         <v>0.739</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -819,10 +853,10 @@
         <v>0.739</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -836,10 +870,10 @@
         <v>0.739</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -853,10 +887,10 @@
         <v>0.739</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -870,10 +904,10 @@
         <v>0.739</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -887,10 +921,10 @@
         <v>0.739</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -904,10 +938,10 @@
         <v>0.739</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -921,10 +955,10 @@
         <v>0.739</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -938,10 +972,10 @@
         <v>0.739</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -955,10 +989,10 @@
         <v>0.739</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -972,10 +1006,10 @@
         <v>0.739</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -989,10 +1023,10 @@
         <v>0.739</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1006,10 +1040,10 @@
         <v>0.739</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1023,15 +1057,20 @@
         <v>0.739</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A5">
+  <conditionalFormatting sqref="A1:A31">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="notContainsErrors" dxfId="1" priority="2">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assignment_1/result_table.xlsx
+++ b/Assignment_1/result_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>Non-shiftable [kWh]</t>
   </si>
@@ -37,115 +37,109 @@
     <t>House</t>
   </si>
   <si>
-    <t>HD, MW</t>
-  </si>
-  <si>
-    <t>CC, GC, CM, HD</t>
-  </si>
-  <si>
-    <t>GC, WiFi, CM, HD, MW</t>
-  </si>
-  <si>
-    <t>CC, MW</t>
-  </si>
-  <si>
-    <t>WiFi, CM</t>
+    <t>CC, CM</t>
+  </si>
+  <si>
+    <t>GC, CM, MW</t>
+  </si>
+  <si>
+    <t>CC, GC, WiFi, HD</t>
+  </si>
+  <si>
+    <t>CC, WiFi</t>
+  </si>
+  <si>
+    <t>CM, HD, MW</t>
   </si>
   <si>
     <t>CC, GC, HD</t>
   </si>
   <si>
-    <t>CC, GC, WiFi, MW</t>
-  </si>
-  <si>
-    <t>GC, CM, MW</t>
+    <t>GC, WiFi, HD, MW</t>
+  </si>
+  <si>
+    <t>WiFi, HD</t>
+  </si>
+  <si>
+    <t>CC, WiFi, CM, HD, MW</t>
+  </si>
+  <si>
+    <t>CC, WiFi, CM, HD</t>
+  </si>
+  <si>
+    <t>GC, WiFi, MW</t>
+  </si>
+  <si>
+    <t>CC, GC, WiFi, CM</t>
+  </si>
+  <si>
+    <t>GC, CM</t>
+  </si>
+  <si>
+    <t>CC, GC, CM, MW</t>
+  </si>
+  <si>
+    <t>CC, HD, MW</t>
+  </si>
+  <si>
+    <t>CC, GC, HD, MW</t>
+  </si>
+  <si>
+    <t>GC, CM, HD, MW</t>
   </si>
   <si>
     <t>CC, GC, WiFi, CM, HD</t>
   </si>
   <si>
-    <t>CC, GC, HD, MW</t>
-  </si>
-  <si>
-    <t>WiFi, HD</t>
+    <t>GC, MW</t>
+  </si>
+  <si>
+    <t>CC, WiFi, CM, MW</t>
+  </si>
+  <si>
+    <t>CC, WiFi, CM</t>
   </si>
   <si>
     <t>GC, WiFi, CM, MW</t>
   </si>
   <si>
-    <t>CC, GC, MW</t>
-  </si>
-  <si>
-    <t>GC, WiFi</t>
-  </si>
-  <si>
-    <t>CC, GC, CM, HD, MW</t>
-  </si>
-  <si>
-    <t>WiFi, CM, HD</t>
-  </si>
-  <si>
-    <t>WiFi, CM, HD, MW</t>
-  </si>
-  <si>
-    <t>GC, WiFi, CM, HD</t>
-  </si>
-  <si>
-    <t>CC, WiFi, MW</t>
-  </si>
-  <si>
-    <t>CC, GC, CM, MW</t>
-  </si>
-  <si>
-    <t>CC, WiFi, CM, HD, MW</t>
-  </si>
-  <si>
-    <t>CC, GC, WiFi</t>
-  </si>
-  <si>
-    <t>CC, WiFi</t>
-  </si>
-  <si>
-    <t>CM, HD, MW</t>
-  </si>
-  <si>
-    <t>13.4</t>
-  </si>
-  <si>
-    <t>13.5</t>
+    <t>CC, HD</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>14.0</t>
   </si>
   <si>
     <t>13.8</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>17.9</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>17.7</t>
   </si>
   <si>
     <t>No</t>
@@ -611,19 +605,19 @@
         <v>17.74</v>
       </c>
       <c r="C2" s="3">
-        <v>6.7</v>
+        <v>6.135</v>
       </c>
       <c r="D2" s="3">
-        <v>24.44</v>
+        <v>23.875</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -634,19 +628,19 @@
         <v>17.74</v>
       </c>
       <c r="C3" s="3">
-        <v>6.625</v>
+        <v>16.89</v>
       </c>
       <c r="D3" s="3">
-        <v>24.365</v>
+        <v>34.63</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -657,19 +651,19 @@
         <v>17.74</v>
       </c>
       <c r="C4" s="3">
-        <v>7.35</v>
+        <v>16.425</v>
       </c>
       <c r="D4" s="3">
-        <v>25.09</v>
+        <v>34.165</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -680,19 +674,19 @@
         <v>17.74</v>
       </c>
       <c r="C5" s="3">
-        <v>6.495</v>
+        <v>15.935</v>
       </c>
       <c r="D5" s="3">
-        <v>24.235</v>
+        <v>33.675</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -703,10 +697,10 @@
         <v>17.74</v>
       </c>
       <c r="C6" s="3">
-        <v>6.26</v>
+        <v>6.94</v>
       </c>
       <c r="D6" s="3">
-        <v>24</v>
+        <v>24.68</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -715,7 +709,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -738,7 +732,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -749,19 +743,19 @@
         <v>17.74</v>
       </c>
       <c r="C8" s="3">
-        <v>6.905</v>
+        <v>16.425</v>
       </c>
       <c r="D8" s="3">
-        <v>24.645</v>
+        <v>34.165</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -772,19 +766,19 @@
         <v>17.74</v>
       </c>
       <c r="C9" s="3">
-        <v>6.99</v>
+        <v>7.11</v>
       </c>
       <c r="D9" s="3">
-        <v>24.73</v>
+        <v>24.85</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -795,19 +789,19 @@
         <v>17.74</v>
       </c>
       <c r="C10" s="3">
-        <v>16.665</v>
+        <v>16.14</v>
       </c>
       <c r="D10" s="3">
-        <v>34.405</v>
+        <v>33.88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -818,19 +812,19 @@
         <v>17.74</v>
       </c>
       <c r="C11" s="3">
-        <v>16.885</v>
+        <v>7.095</v>
       </c>
       <c r="D11" s="3">
-        <v>34.625</v>
+        <v>24.835</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -841,19 +835,19 @@
         <v>17.74</v>
       </c>
       <c r="C12" s="3">
-        <v>16.14</v>
+        <v>6.495</v>
       </c>
       <c r="D12" s="3">
-        <v>33.88</v>
+        <v>24.235</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -864,19 +858,19 @@
         <v>17.74</v>
       </c>
       <c r="C13" s="3">
-        <v>17.03</v>
+        <v>16.79</v>
       </c>
       <c r="D13" s="3">
-        <v>34.77</v>
+        <v>34.53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -887,19 +881,19 @@
         <v>17.74</v>
       </c>
       <c r="C14" s="3">
-        <v>16.665</v>
+        <v>16.445</v>
       </c>
       <c r="D14" s="3">
-        <v>34.405</v>
+        <v>34.185</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -910,19 +904,19 @@
         <v>17.74</v>
       </c>
       <c r="C15" s="3">
-        <v>6.29</v>
+        <v>16.29</v>
       </c>
       <c r="D15" s="3">
-        <v>24.03</v>
+        <v>34.03</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -933,19 +927,19 @@
         <v>17.74</v>
       </c>
       <c r="C16" s="3">
-        <v>17.125</v>
+        <v>7.005</v>
       </c>
       <c r="D16" s="3">
-        <v>34.865</v>
+        <v>24.745</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -956,19 +950,19 @@
         <v>17.74</v>
       </c>
       <c r="C17" s="3">
-        <v>16.38</v>
+        <v>16.615</v>
       </c>
       <c r="D17" s="3">
-        <v>34.12</v>
+        <v>34.355</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -979,19 +973,19 @@
         <v>17.74</v>
       </c>
       <c r="C18" s="3">
-        <v>7.08</v>
+        <v>16.885</v>
       </c>
       <c r="D18" s="3">
-        <v>24.82</v>
+        <v>34.625</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1002,19 +996,19 @@
         <v>17.74</v>
       </c>
       <c r="C19" s="3">
-        <v>16.65</v>
+        <v>17.11</v>
       </c>
       <c r="D19" s="3">
-        <v>34.39</v>
+        <v>34.85</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1025,19 +1019,19 @@
         <v>17.74</v>
       </c>
       <c r="C20" s="3">
-        <v>16.535</v>
+        <v>17.11</v>
       </c>
       <c r="D20" s="3">
-        <v>34.275</v>
+        <v>34.85</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1048,19 +1042,19 @@
         <v>17.74</v>
       </c>
       <c r="C21" s="3">
-        <v>16.905</v>
+        <v>6.765</v>
       </c>
       <c r="D21" s="3">
-        <v>34.645</v>
+        <v>24.505</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1071,19 +1065,19 @@
         <v>17.74</v>
       </c>
       <c r="C22" s="3">
-        <v>16.995</v>
+        <v>6.75</v>
       </c>
       <c r="D22" s="3">
-        <v>34.735</v>
+        <v>24.49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1094,19 +1088,19 @@
         <v>17.74</v>
       </c>
       <c r="C23" s="3">
-        <v>16.995</v>
+        <v>16.65</v>
       </c>
       <c r="D23" s="3">
-        <v>34.735</v>
+        <v>34.39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1117,19 +1111,19 @@
         <v>17.74</v>
       </c>
       <c r="C24" s="3">
-        <v>7.13</v>
+        <v>16.905</v>
       </c>
       <c r="D24" s="3">
-        <v>24.87</v>
+        <v>34.645</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1140,19 +1134,19 @@
         <v>17.74</v>
       </c>
       <c r="C25" s="3">
-        <v>16.205</v>
+        <v>6.94</v>
       </c>
       <c r="D25" s="3">
-        <v>33.945</v>
+        <v>24.68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1163,19 +1157,19 @@
         <v>17.74</v>
       </c>
       <c r="C26" s="3">
-        <v>16.65</v>
+        <v>16.775</v>
       </c>
       <c r="D26" s="3">
-        <v>34.39</v>
+        <v>34.515</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1186,19 +1180,19 @@
         <v>17.74</v>
       </c>
       <c r="C27" s="3">
-        <v>17.25</v>
+        <v>6.275</v>
       </c>
       <c r="D27" s="3">
-        <v>34.99</v>
+        <v>24.015</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1209,19 +1203,19 @@
         <v>17.74</v>
       </c>
       <c r="C28" s="3">
-        <v>16.905</v>
+        <v>15.935</v>
       </c>
       <c r="D28" s="3">
-        <v>34.645</v>
+        <v>33.675</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1232,19 +1226,19 @@
         <v>17.74</v>
       </c>
       <c r="C29" s="3">
-        <v>15.935</v>
+        <v>7.13</v>
       </c>
       <c r="D29" s="3">
-        <v>33.675</v>
+        <v>24.87</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1255,19 +1249,19 @@
         <v>17.74</v>
       </c>
       <c r="C30" s="3">
-        <v>16.84</v>
+        <v>16.89</v>
       </c>
       <c r="D30" s="3">
-        <v>34.58</v>
+        <v>34.63</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1278,19 +1272,19 @@
         <v>17.74</v>
       </c>
       <c r="C31" s="3">
-        <v>16.65</v>
+        <v>6.115</v>
       </c>
       <c r="D31" s="3">
-        <v>34.39</v>
+        <v>23.855</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_1/result_table.xlsx
+++ b/Assignment_1/result_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>Non-shiftable [kWh]</t>
   </si>
@@ -37,109 +37,121 @@
     <t>House</t>
   </si>
   <si>
+    <t>CM, HD, MW</t>
+  </si>
+  <si>
+    <t>CC, WiFi</t>
+  </si>
+  <si>
+    <t>WiFi, CM</t>
+  </si>
+  <si>
+    <t>CC, GC, WiFi, CM</t>
+  </si>
+  <si>
+    <t>CC, GC, CM</t>
+  </si>
+  <si>
+    <t>CC, GC, WiFi, CM, HD, MW</t>
+  </si>
+  <si>
+    <t>CC, WiFi, CM, HD</t>
+  </si>
+  <si>
+    <t>GC, WiFi, CM, HD, MW</t>
+  </si>
+  <si>
+    <t>GC, WiFi, MW</t>
+  </si>
+  <si>
+    <t>CC, CM, HD, MW</t>
+  </si>
+  <si>
     <t>CC, CM</t>
   </si>
   <si>
-    <t>GC, CM, MW</t>
+    <t>CC, WiFi, CM</t>
+  </si>
+  <si>
+    <t>CC, WiFi, HD</t>
+  </si>
+  <si>
+    <t>CC, WiFi, CM, MW</t>
+  </si>
+  <si>
+    <t>CC, GC, WiFi, CM, MW</t>
+  </si>
+  <si>
+    <t>CC, GC, CM, HD, MW</t>
+  </si>
+  <si>
+    <t>CC, MW</t>
+  </si>
+  <si>
+    <t>CC, WiFi, HD, MW</t>
+  </si>
+  <si>
+    <t>CC, GC, CM, MW</t>
+  </si>
+  <si>
+    <t>GC, WiFi, CM, MW</t>
+  </si>
+  <si>
+    <t>GC, WiFi</t>
+  </si>
+  <si>
+    <t>CC, GC, WiFi, HD, MW</t>
+  </si>
+  <si>
+    <t>CM, MW</t>
   </si>
   <si>
     <t>CC, GC, WiFi, HD</t>
   </si>
   <si>
-    <t>CC, WiFi</t>
-  </si>
-  <si>
-    <t>CM, HD, MW</t>
-  </si>
-  <si>
-    <t>CC, GC, HD</t>
-  </si>
-  <si>
-    <t>GC, WiFi, HD, MW</t>
-  </si>
-  <si>
-    <t>WiFi, HD</t>
-  </si>
-  <si>
-    <t>CC, WiFi, CM, HD, MW</t>
-  </si>
-  <si>
-    <t>CC, WiFi, CM, HD</t>
-  </si>
-  <si>
-    <t>GC, WiFi, MW</t>
-  </si>
-  <si>
-    <t>CC, GC, WiFi, CM</t>
-  </si>
-  <si>
-    <t>GC, CM</t>
-  </si>
-  <si>
-    <t>CC, GC, CM, MW</t>
-  </si>
-  <si>
-    <t>CC, HD, MW</t>
-  </si>
-  <si>
-    <t>CC, GC, HD, MW</t>
-  </si>
-  <si>
-    <t>GC, CM, HD, MW</t>
-  </si>
-  <si>
-    <t>CC, GC, WiFi, CM, HD</t>
-  </si>
-  <si>
-    <t>GC, MW</t>
-  </si>
-  <si>
-    <t>CC, WiFi, CM, MW</t>
-  </si>
-  <si>
-    <t>CC, WiFi, CM</t>
-  </si>
-  <si>
-    <t>GC, WiFi, CM, MW</t>
-  </si>
-  <si>
-    <t>CC, HD</t>
-  </si>
-  <si>
-    <t>13.7</t>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>14.5</t>
   </si>
   <si>
     <t>18.7</t>
   </si>
   <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
     <t>18.5</t>
   </si>
   <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
     <t>14.2</t>
   </si>
   <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>18.6</t>
-  </si>
-  <si>
-    <t>18.8</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>13.8</t>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>14.4</t>
   </si>
   <si>
     <t>No</t>
@@ -605,19 +617,19 @@
         <v>17.74</v>
       </c>
       <c r="C2" s="3">
-        <v>6.135</v>
+        <v>6.94</v>
       </c>
       <c r="D2" s="3">
-        <v>23.875</v>
+        <v>24.68</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -628,19 +640,19 @@
         <v>17.74</v>
       </c>
       <c r="C3" s="3">
-        <v>16.89</v>
+        <v>6.035</v>
       </c>
       <c r="D3" s="3">
-        <v>34.63</v>
+        <v>23.775</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -651,19 +663,19 @@
         <v>17.74</v>
       </c>
       <c r="C4" s="3">
-        <v>16.425</v>
+        <v>6.26</v>
       </c>
       <c r="D4" s="3">
-        <v>34.165</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -674,19 +686,19 @@
         <v>17.74</v>
       </c>
       <c r="C5" s="3">
-        <v>15.935</v>
+        <v>6.545</v>
       </c>
       <c r="D5" s="3">
-        <v>33.675</v>
+        <v>24.285</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -697,19 +709,19 @@
         <v>17.74</v>
       </c>
       <c r="C6" s="3">
-        <v>6.94</v>
+        <v>16.305</v>
       </c>
       <c r="D6" s="3">
-        <v>24.68</v>
+        <v>34.045</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -720,19 +732,19 @@
         <v>17.74</v>
       </c>
       <c r="C7" s="3">
-        <v>16.285</v>
+        <v>7.365</v>
       </c>
       <c r="D7" s="3">
-        <v>34.025</v>
+        <v>25.105</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -743,19 +755,19 @@
         <v>17.74</v>
       </c>
       <c r="C8" s="3">
-        <v>16.425</v>
+        <v>16.395</v>
       </c>
       <c r="D8" s="3">
-        <v>34.165</v>
+        <v>34.135</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -766,19 +778,19 @@
         <v>17.74</v>
       </c>
       <c r="C9" s="3">
-        <v>7.11</v>
+        <v>17.25</v>
       </c>
       <c r="D9" s="3">
-        <v>24.85</v>
+        <v>34.99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -789,19 +801,19 @@
         <v>17.74</v>
       </c>
       <c r="C10" s="3">
-        <v>16.14</v>
+        <v>16.79</v>
       </c>
       <c r="D10" s="3">
-        <v>33.88</v>
+        <v>34.53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -812,19 +824,19 @@
         <v>17.74</v>
       </c>
       <c r="C11" s="3">
-        <v>7.095</v>
+        <v>16.855</v>
       </c>
       <c r="D11" s="3">
-        <v>24.835</v>
+        <v>34.595</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -835,19 +847,19 @@
         <v>17.74</v>
       </c>
       <c r="C12" s="3">
-        <v>6.495</v>
+        <v>6.135</v>
       </c>
       <c r="D12" s="3">
-        <v>24.235</v>
+        <v>23.875</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -858,19 +870,19 @@
         <v>17.74</v>
       </c>
       <c r="C13" s="3">
-        <v>16.79</v>
+        <v>16.84</v>
       </c>
       <c r="D13" s="3">
-        <v>34.53</v>
+        <v>34.58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -881,19 +893,19 @@
         <v>17.74</v>
       </c>
       <c r="C14" s="3">
-        <v>16.445</v>
+        <v>6.275</v>
       </c>
       <c r="D14" s="3">
-        <v>34.185</v>
+        <v>24.015</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -904,19 +916,19 @@
         <v>17.74</v>
       </c>
       <c r="C15" s="3">
-        <v>16.29</v>
+        <v>16.155</v>
       </c>
       <c r="D15" s="3">
-        <v>34.03</v>
+        <v>33.895</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -927,19 +939,19 @@
         <v>17.74</v>
       </c>
       <c r="C16" s="3">
-        <v>7.005</v>
+        <v>16.175</v>
       </c>
       <c r="D16" s="3">
-        <v>24.745</v>
+        <v>33.915</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -950,19 +962,19 @@
         <v>17.74</v>
       </c>
       <c r="C17" s="3">
-        <v>16.615</v>
+        <v>6.875</v>
       </c>
       <c r="D17" s="3">
-        <v>34.355</v>
+        <v>24.615</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -973,19 +985,19 @@
         <v>17.74</v>
       </c>
       <c r="C18" s="3">
-        <v>16.885</v>
+        <v>16.035</v>
       </c>
       <c r="D18" s="3">
-        <v>34.625</v>
+        <v>33.775</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -996,19 +1008,19 @@
         <v>17.74</v>
       </c>
       <c r="C19" s="3">
-        <v>17.11</v>
+        <v>17.045</v>
       </c>
       <c r="D19" s="3">
-        <v>34.85</v>
+        <v>34.785</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1019,19 +1031,19 @@
         <v>17.74</v>
       </c>
       <c r="C20" s="3">
-        <v>17.11</v>
+        <v>7.145</v>
       </c>
       <c r="D20" s="3">
-        <v>34.85</v>
+        <v>24.885</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1042,19 +1054,19 @@
         <v>17.74</v>
       </c>
       <c r="C21" s="3">
-        <v>6.765</v>
+        <v>17.125</v>
       </c>
       <c r="D21" s="3">
-        <v>24.505</v>
+        <v>34.865</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1065,19 +1077,19 @@
         <v>17.74</v>
       </c>
       <c r="C22" s="3">
-        <v>6.75</v>
+        <v>6.495</v>
       </c>
       <c r="D22" s="3">
-        <v>24.49</v>
+        <v>24.235</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1088,19 +1100,19 @@
         <v>17.74</v>
       </c>
       <c r="C23" s="3">
-        <v>16.65</v>
+        <v>16.755</v>
       </c>
       <c r="D23" s="3">
-        <v>34.39</v>
+        <v>34.495</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1111,19 +1123,19 @@
         <v>17.74</v>
       </c>
       <c r="C24" s="3">
-        <v>16.905</v>
+        <v>6.035</v>
       </c>
       <c r="D24" s="3">
-        <v>34.645</v>
+        <v>23.775</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1134,19 +1146,19 @@
         <v>17.74</v>
       </c>
       <c r="C25" s="3">
-        <v>6.94</v>
+        <v>16.905</v>
       </c>
       <c r="D25" s="3">
-        <v>24.68</v>
+        <v>34.645</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1157,19 +1169,19 @@
         <v>17.74</v>
       </c>
       <c r="C26" s="3">
-        <v>16.775</v>
+        <v>17.03</v>
       </c>
       <c r="D26" s="3">
-        <v>34.515</v>
+        <v>34.77</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1180,19 +1192,19 @@
         <v>17.74</v>
       </c>
       <c r="C27" s="3">
-        <v>6.275</v>
+        <v>16.155</v>
       </c>
       <c r="D27" s="3">
-        <v>24.015</v>
+        <v>33.895</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1203,19 +1215,19 @@
         <v>17.74</v>
       </c>
       <c r="C28" s="3">
-        <v>15.935</v>
+        <v>16.19</v>
       </c>
       <c r="D28" s="3">
-        <v>33.675</v>
+        <v>33.93</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1226,19 +1238,19 @@
         <v>17.74</v>
       </c>
       <c r="C29" s="3">
-        <v>7.13</v>
+        <v>7.125</v>
       </c>
       <c r="D29" s="3">
-        <v>24.87</v>
+        <v>24.865</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1249,19 +1261,19 @@
         <v>17.74</v>
       </c>
       <c r="C30" s="3">
-        <v>16.89</v>
+        <v>6.72</v>
       </c>
       <c r="D30" s="3">
-        <v>34.63</v>
+        <v>24.46</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1272,19 +1284,19 @@
         <v>17.74</v>
       </c>
       <c r="C31" s="3">
-        <v>6.115</v>
+        <v>16.425</v>
       </c>
       <c r="D31" s="3">
-        <v>23.855</v>
+        <v>34.165</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
